--- a/fundamentals-test-cases.xlsx
+++ b/fundamentals-test-cases.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shikh\Desktop\anirudh\CPR101_NAA\Project work\Creating test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7A1B438A-D6E7-4561-BC8E-18BA58B71E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5A2E9B4-7A12-4BFA-95A9-2AABAE37DBC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1404B9C6-1AB9-4A31-B9E2-5F5FCF92E3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="-the-name-of-your- module" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -769,15 +767,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
   <si>
     <t>Program
 or module:</t>
   </si>
   <si>
-    <t>Fundamentals</t>
-  </si>
-  <si>
     <t>Version 1</t>
   </si>
   <si>
@@ -785,10 +786,20 @@
 Date:</t>
   </si>
   <si>
-    <t>Anirudh 01 December, 2022</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual result
+if unexpected</t>
+  </si>
+  <si>
+    <t>Data Input</t>
   </si>
   <si>
     <r>
@@ -814,94 +825,88 @@
     </r>
   </si>
   <si>
-    <t>Data Input</t>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
-    <t>Actual result
-if unexpected</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>????? Tester's Name ?????
+????? Date ?????</t>
+  </si>
+  <si>
+    <t>Fundamentals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose it should result the expected output when tested under normal conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string of characters : abcdefgh, position of character : 3</t>
+  </si>
+  <si>
+    <t>output: d</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Although, the program is working as it should be and the result is as expected from programmer point of view. But there is a high chance that the non-technical person using the program will not understand the 0 based index results until they are told. So, it is better to design it in more user friendly way by using 1 based indexing for result.</t>
+  </si>
+  <si>
+    <t>This test is used to check if program exits properly if the condition in if statement meets the requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose it is used to check the program if it ends as it is programmed</t>
+  </si>
+  <si>
+    <t>input : q</t>
+  </si>
+  <si>
+    <t>exit out of the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose it is used to check the edge case for the maximum length of the string.</t>
+  </si>
+  <si>
+    <t>input : string of characters: 1234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
+  </si>
+  <si>
+    <t>should ask to enter the character position and return the character at that position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it prompted to enter position of character but it proceeded without taking input and displayed character at position 0 is 1. </t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to check what will happen if the string length is minimum </t>
+  </si>
+  <si>
+    <t>' '+' purpose it is used to check the edge case for the minimum length of the string.</t>
+  </si>
+  <si>
+    <t>input : string of characters: $, position of character: 0</t>
+  </si>
+  <si>
+    <t>output: $</t>
+  </si>
+  <si>
+    <t>input :string of characters :mnopqrst, position of character: 9</t>
   </si>
   <si>
     <t xml:space="preserve">This test is used to check the overall working of the program and it will test 'do-while' loop and 'if' statement with condition,string is not 'q' then what. </t>
   </si>
   <si>
-    <t xml:space="preserve"> '+' purpose it should result the expected output when tested under normal conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> string of characters : abcdefgh, position of character : 3</t>
-  </si>
-  <si>
-    <t>output: d</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Although, the program is working as it should be and the result is as expected from programmer point of view. But there is a high chance that the non-technical person using the program will not understand the 0 based index results until they are told. So, it is better to design it in more user friendly way by using 1 based indexing for result.</t>
-  </si>
-  <si>
-    <t>This test is used to check if program exits properly if the condition in if statement meets the requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '+' purpose it is used to check the program if it ends as it is programmed</t>
-  </si>
-  <si>
-    <t>input : q</t>
-  </si>
-  <si>
-    <t>exit out of the program</t>
-  </si>
-  <si>
     <t xml:space="preserve">This test is used to check the edge case for maximum string length. </t>
   </si>
   <si>
-    <t xml:space="preserve"> '+' purpose it is used to check the edge case for the maximum length of the string.</t>
-  </si>
-  <si>
-    <t>input : string of characters: 1234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
-  </si>
-  <si>
-    <t>should ask to enter the character position and return the character at that position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it prompted to enter position of character but it proceeded without taking input and displayed character at position 0 is 1. </t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>It is not considering the edge case for maximum character of string but it is only considering upto 78 characters which is not the maximum limit of characters. Therefore, program needs to be giving proper results at edges as well so change in the conditions is required so it can consider maximum edge case.</t>
   </si>
   <si>
-    <t xml:space="preserve">This test is used to check what will happen if the string length is minimum </t>
-  </si>
-  <si>
-    <t>' '+' purpose it is used to check the edge case for the minimum length of the string.</t>
-  </si>
-  <si>
-    <t>input : string of characters: $, position of character: 0</t>
-  </si>
-  <si>
-    <t>output: $</t>
-  </si>
-  <si>
     <t>This test is used to check over the maximum position of the string and will check the 'if structure' with condition of what will happen if position is greater than string length</t>
   </si>
   <si>
     <t xml:space="preserve"> '-' purpose it will test the over the edge case for the input of position of character.</t>
   </si>
   <si>
-    <t>input :string of characters :mnopqrst, position of character: 9</t>
-  </si>
-  <si>
     <t>output: should show diagnostic message and display character at last position that is 7 position is t.</t>
   </si>
   <si>
@@ -944,109 +949,210 @@
     <t>Program fails to handle the unexpected inputs. This needs to be reviewed again and should add condition to validate the inputs to see the expected outputs.</t>
   </si>
   <si>
-    <t>Version 2</t>
+    <t>Anirudh 01 December, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input - abcdefgh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to test if program works correctly as it should be when provided with inputs under limit.</t>
+  </si>
+  <si>
+    <t>This test is used check the output of the program if it is working properly under normal conditions i.e. under limit inputs. And also it will check the if struct of the program.</t>
+  </si>
+  <si>
+    <t>input - (Empty)</t>
+  </si>
+  <si>
+    <t>+' purpose to test the minimum length of the string</t>
+  </si>
+  <si>
+    <t>input - $</t>
+  </si>
+  <si>
+    <t>-' purpose to test over the edge case to see what will be the output when nothing is entered.</t>
+  </si>
+  <si>
+    <t>This test is used to see if empty string is provided what will happen to the program and it check the if struct ti see whether it is working correctly ot not.</t>
+  </si>
+  <si>
+    <t>This test is used to check the maximum length of the string if it results correctly or not and it also checks if struct.</t>
+  </si>
+  <si>
+    <t>This test is used to check the program for the minimum edge case to see if output is correct or not. It checks the if struct of do while loop of measuring string.</t>
+  </si>
+  <si>
+    <t>+' purpose to test edge case for the maximum length of the string if it gives proper result. It checks the if struct of the measuring string of program.</t>
+  </si>
+  <si>
+    <t>output : The length of '$' is 1</t>
+  </si>
+  <si>
+    <t>output : The length of ' ' is 0</t>
+  </si>
+  <si>
+    <t>output : The length of '123456789012345678901234567890123456789012345678901234567890123456789' is 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The program did not worked as it should be. It only counted 78 characters but instead it should count 79 characters and also it unexpectedly skips to get input from the user which is failure of program. As the maximum length is set upto 80 characters but after eliminating 1 null terminator, still it is not giving 79 characters. Possible cause of this issue could be due to failure of setting null terminator correctly. It seems like null terminator is set to last second position of string instread of first. </t>
+  </si>
+  <si>
+    <t>This test is used to check over the edge case of the maximum length of the string and it will check if struct of the program</t>
+  </si>
+  <si>
+    <t>-' purpose to test over the edge test case for the maximum length of the string if it gives proper analysis of the issue.</t>
+  </si>
+  <si>
+    <t>input - 098765432109876543210987654321098765432109876543210987654321098765432109876543210987654321</t>
+  </si>
+  <si>
+    <t>output : The length of given string is too long to be saved please try again with upto 79 characters of string.</t>
+  </si>
+  <si>
+    <t>output : The length of '12345678901234567890123456789012345678901234567890123456789012345678' is 78. and it asked again to type a string and without getting anything it displayed The length of ' ' is 0.</t>
+  </si>
+  <si>
+    <t>output : The length of '0987654321098765432109876543210987654321098765432109876543210987654321098765432' is 78. Type a string (q- quit): The length of '10987654321' is 11.</t>
+  </si>
+  <si>
+    <t>Program fails to overcome the issue of over the maximum length of the string instead of diagnostic message, showing the string length is too long, it showed the length of string in parts of 78 characters and then again the remaining characters in next part which is not at all expected from the program. Possible cause of this issue might be because when the loop runs again the buffer is not cleared before getting new input and as there is still some characters present in the buffer. program skips to get input from the user.</t>
+  </si>
+  <si>
+    <t>+' purpose to test the termination of the program as it is designed to work.</t>
+  </si>
+  <si>
+    <t>input - q</t>
+  </si>
+  <si>
+    <t>output : quits out of the measuring program</t>
+  </si>
+  <si>
+    <t>output : The length of 'abcdefgh' is 8</t>
+  </si>
+  <si>
+    <t>input - 1234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
   </si>
   <si>
     <t>Anirudh
 11 December 2022</t>
   </si>
   <si>
-    <t>This test is used check the output of the program if it is working properly under normal conditions i.e. under limit inputs. And also it will check the if struct of the program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '+' purpose to test if program works correctly as it should be when provided with inputs under limit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input - abcdefgh </t>
-  </si>
-  <si>
-    <t>output : The length of 'abcdefgh' is 6</t>
-  </si>
-  <si>
-    <t>This test is used to check the program for the minimum edge case to see if output is correct or not. It checks the if struct of do while loop of measuring string.</t>
-  </si>
-  <si>
-    <t>+' purpose to test the minimum length of the string</t>
-  </si>
-  <si>
-    <t>input - $</t>
-  </si>
-  <si>
-    <t>output : The length of '$' is 1</t>
-  </si>
-  <si>
-    <t>This test is used to see if empty string is provided what will happen to the program and it check the if struct ti see whether it is working correctly ot not.</t>
-  </si>
-  <si>
-    <t>-' purpose to test over the edge case to see what will be the output when nothing is entered.</t>
-  </si>
-  <si>
-    <t>input - (Empty)</t>
-  </si>
-  <si>
-    <t>output : The length of ' ' is 0</t>
-  </si>
-  <si>
-    <t>This test is used to check the maximum length of the string if it results correctly or not and it also checks if struct.</t>
-  </si>
-  <si>
-    <t>+' purpose to test edge case for the maximum length of the string if it gives proper result. It checks the if struct of the measuring string of program.</t>
-  </si>
-  <si>
-    <t>input - 123456789012345678901234567890123456789012345678901234567890123456789</t>
-  </si>
-  <si>
-    <t>output : The length of '123456789012345678901234567890123456789012345678901234567890123456789' is 79</t>
-  </si>
-  <si>
-    <t>output : The length of '12345678901234567890123456789012345678901234567890123456789012345678' is 78. and it asked again to type a string and without getting anything it displayed The length of ' ' is 0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The program did not worked as it should be. It only counted 78 characters but instead it should count 79 characters and also it unexpectedly skips to get input from the user which is failure of program. As the maximum length is set upto 80 characters but after eliminating 1 null terminator, still it is not giving 79 characters. Possible cause of this issue could be due to failure of setting null terminator correctly. It seems like null terminator is set to last second position of string instread of first. </t>
-  </si>
-  <si>
-    <t>This test is used to check over the edge case of the maximum length of the string and it will check if struct of the program</t>
-  </si>
-  <si>
-    <t>-' purpose to test over the edge test case for the maximum length of the string if it gives proper analysis of the issue.</t>
-  </si>
-  <si>
-    <t>input - 098765432109876543210987654321098765432109876543210987654321098765432109876543210987654321</t>
-  </si>
-  <si>
-    <t>output : The length of given string is too long to be saved please try again with upto 79 characters of string.</t>
-  </si>
-  <si>
-    <t>output : The length of '0987654321098765432109876543210987654321098765432109876543210987654321098765432' is 78. Type a string (q- quit): The length of '10987654321' is 11.</t>
-  </si>
-  <si>
-    <t>Program fails to overcome the issue of over the maximum length of the string instead of diagnostic message, showing the string length is too long, it showed the length of string in parts of 78 characters and then again the remaining characters in next part which is not at all expected from the program. Possible cause of this issue might be because when the loop runs again the buffer is not cleared before getting new input and as there is still some characters present in the buffer. program skips to get input from the user.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is used to see if program terminated the program as it is planned to do so. It check the working of the do while loop in the measuring program. </t>
-  </si>
-  <si>
-    <t>+' purpose to test the termination of the program as it is designed to work.</t>
-  </si>
-  <si>
-    <t>input - q</t>
-  </si>
-  <si>
-    <t>output : quits out of the measuring program</t>
-  </si>
-  <si>
-    <t>Version 3</t>
-  </si>
-  <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
+    <t>This test is used check the output of the program if it is working properly under normal conditions with proper inputs. And also it will check the if struct of the program.</t>
+  </si>
+  <si>
+    <t>input : my name is anirudh</t>
+  </si>
+  <si>
+    <t>This test is used to check the program for the minimum edge case to see if output is correct or not. It checks the if struct of do while loop of input string.</t>
+  </si>
+  <si>
+    <t>+' purpose to test the minimum length of the string if output is correct or not</t>
+  </si>
+  <si>
+    <t>input : #</t>
+  </si>
+  <si>
+    <t>output : new destination string is 'my name is anirudh'</t>
+  </si>
+  <si>
+    <t>output : new destination string is '#'</t>
+  </si>
+  <si>
+    <t>This test is used to test over the edge case for the minimum length of the string and it will check the if struct of the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '- ' purpose to test how the program will behave if nothing is provided in the string.</t>
+  </si>
+  <si>
+    <t>input : (Empty string)</t>
+  </si>
+  <si>
+    <t>output:should show empty string along with diagnosis message enter some characters along with maximum limit of characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to check output near the maximum limit of the characters that string can hold and also it will check the if struct of the program. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to test around the maximum limit of characters that string can hold. </t>
+  </si>
+  <si>
+    <t>input : 123456789012345678901234567890123456789012345678901234567890123456789012345678</t>
+  </si>
+  <si>
+    <t>output :new destination string is '123456789012345678901234567890123456789012345678901234567890123456789012345678'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to test maximum edge case of the program </t>
+  </si>
+  <si>
+    <t>From programmer point of view program works perfectly as it should be without any unexpected results but the diagnosis message should also be displayed along with maximum range of characters string can hold. It will give more clearity to the program from user end.</t>
+  </si>
+  <si>
+    <t>this test is used to check the output of the maximum edge case of the program to see if it work well or not. It will check the if struct and do-while loop both.</t>
+  </si>
+  <si>
+    <t>input : 1234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
+  </si>
+  <si>
+    <t>output :new destination string is '1234567890123456789012345678901234567890123456789012345678901234567890123456789'</t>
+  </si>
+  <si>
+    <t>output :new destination string is '123456789012345678901234567890123456789012345678901234567890123456789012345678' destination string is reset to empty and new destination string is ' '</t>
+  </si>
+  <si>
+    <t>Program fails to run on the maximum edge case as it only copied upto 78 characters to new variable but it should be copying upto maximum of 79 characters as max size is set to 80 and after eliminating 1 null terninator position, still it copied 1 character less also it unexpectedly asked to enter string which was followed by nw output of empty destination string. This is complete failure of the program. To make it work, null terminator needs to be set again and buffer needs to be cleared properly.</t>
+  </si>
+  <si>
+    <t>this test is used to check the output of the maximum over the edge case of the program to see if it work well or not. It will check the if struct and do-while loop both.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '-' purpose to test if program handles over the edge case of the maximum string length or not.</t>
+  </si>
+  <si>
+    <t>input : 123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+  </si>
+  <si>
+    <t>output : should show validation message that entered string is too long and should show range of characters upto which it can store characters.</t>
+  </si>
+  <si>
+    <t>output :new destination string is '123456789012345678901234567890123456789012345678901234567890123456789012345678' destination string is reset to empty and new destination string is '901234567890'</t>
+  </si>
+  <si>
+    <t>Program fails to handle over the edge case of maximum length of string instead of diagnostic message, showing the string length is too long, it showed the length of string in parts of 78 characters and then again the remaining characters in next part which is not at all expected from the program. Possible cause of this issue might be because when the loop runs again and the buffer is not cleared properly before getting new input and as there is still some characters present in the buffer. program skips to get input from the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to see if program is case sensitive or not.</t>
+  </si>
+  <si>
+    <t>input : Q</t>
+  </si>
+  <si>
+    <t>output : new destination string is 'Q'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to see if program terminated the program as it is planned to do so. It checks the working of the do while loop in the measuring program. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to see if program terminated out of system as it is planned to do so. It checks the working of the do while loop in the copying program. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to see if program is dependent on case sensitivity or not. It checks the working of the do while loop and if struct in the copying program. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to check if program terminates properly or not</t>
+  </si>
+  <si>
+    <t>input :q</t>
+  </si>
+  <si>
+    <t>output : terminates out of the system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1355,7 +1461,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1449,6 +1555,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1755,27 +1864,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1">
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="30" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
@@ -1786,87 +1895,87 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" ht="27" thickBot="1">
+    <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" thickBot="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="145.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="92.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="132">
+    <row r="6" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>23</v>
@@ -1884,154 +1993,154 @@
         <v>27</v>
       </c>
       <c r="G6" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="66">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="158.44999999999999">
+    <row r="8" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="132">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="119.45" thickBot="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F12" s="13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="39.6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>57</v>
@@ -2040,184 +2149,292 @@
         <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="211.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="224.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="224.45">
-      <c r="A17" s="20" t="s">
+      <c r="C17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="53.45" thickBot="1">
-      <c r="A18" s="20" t="s">
+      <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="D18" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="F21" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="F22" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="F23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
+      <c r="F24" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="224.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
+      <c r="F27" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="15">
+      <c r="F28" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
       <c r="E29" s="2"/>
       <c r="F29" s="17"/>
     </row>
@@ -2436,6 +2653,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="168b1131-499a-4d9c-b7a6-eed7c13a0eb7">
@@ -2445,23 +2671,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5FA6B28-B7E2-4237-A4BB-A0B566161B81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC7255B-7804-431A-A4CB-3101351B29E1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305F0975-1DB5-4A8E-94EF-A24C38E8BDC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29895FD-2E22-4E8F-970C-164FA2DDF365}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8ED9F2F-713F-4060-BDD6-6C20CFFFC509}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2931C9F-4208-437A-A25F-F26BD19686FF}"/>
 </file>